--- a/Test/bin/Release/template_00002.xlsx
+++ b/Test/bin/Release/template_00002.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="12345" yWindow="150" windowWidth="11280" windowHeight="9525"/>
   </bookViews>
   <sheets>
-    <sheet name="SAIDAS GERAL" sheetId="1" r:id="rId1"/>
+    <sheet name="Saidas Geral" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SAIDAS GERAL'!$A$11:$AA$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Saidas Geral'!$A$11:$AA$11</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -298,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -316,6 +316,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,7 +616,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X12" sqref="X12"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -783,37 +784,37 @@
         <v>21</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X9" s="1"/>
@@ -825,37 +826,37 @@
       <c r="L10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="X10" s="1"/>
@@ -981,37 +982,37 @@
       <c r="L12" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="S12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="U12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="V12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W12" s="2" t="s">
+      <c r="W12" s="13" t="s">
         <v>58</v>
       </c>
       <c r="X12" t="s">

--- a/Test/bin/Release/template_00002.xlsx
+++ b/Test/bin/Release/template_00002.xlsx
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Valor Líquido</t>
+  </si>
+  <si>
+    <t>*RE_SAI_IN_PRAZOPAGAMENTO</t>
   </si>
   <si>
     <t>TIPO|CAMPO|POSICAO|OPCIONAL
@@ -226,10 +229,9 @@
 TO|SUBTOTAL(9,#)|T10|T12
 TO|SUBTOTAL(9,#)|U10|U12
 TO|SUBTOTAL(9,#)|V10|V12
-TO|SUBTOTAL(9,#)|W10|W12</t>
-  </si>
-  <si>
-    <t>*RE_SAI_IN_PRAZOPAGAMENTO</t>
+TO|SUBTOTAL(9,#)|W10|W12
+CF|#DBE5F1|A11:AB11|
+TA|A:AB|11|28</t>
   </si>
 </sst>
 </file>
@@ -313,10 +315,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,7 +618,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -635,7 +637,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>21</v>
@@ -648,14 +650,14 @@
       <c r="X1"/>
     </row>
     <row r="2" spans="1:28">
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="9" t="s">
         <v>21</v>
       </c>
@@ -684,14 +686,14 @@
       <c r="X3"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
@@ -784,37 +786,37 @@
         <v>21</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="13" t="s">
+      <c r="S9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="13" t="s">
+      <c r="T9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="U9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="13" t="s">
+      <c r="V9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="W9" s="13" t="s">
+      <c r="W9" s="12" t="s">
         <v>28</v>
       </c>
       <c r="X9" s="1"/>
@@ -826,37 +828,37 @@
       <c r="L10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="13" t="s">
+      <c r="S10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="T10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="13" t="s">
+      <c r="U10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="13" t="s">
+      <c r="V10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="W10" s="13" t="s">
+      <c r="W10" s="12" t="s">
         <v>35</v>
       </c>
       <c r="X10" s="1"/>
@@ -982,41 +984,41 @@
       <c r="L12" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="S12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="T12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="U12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="V12" s="13" t="s">
+      <c r="V12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="W12" s="13" t="s">
+      <c r="W12" s="12" t="s">
         <v>58</v>
       </c>
       <c r="X12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y12" t="s">
         <v>26</v>

--- a/Test/bin/Release/template_00002.xlsx
+++ b/Test/bin/Release/template_00002.xlsx
@@ -203,6 +203,7 @@
   </si>
   <si>
     <t>TIPO|CAMPO|POSICAO|OPCIONAL
+CA||A1:AA12|
 ST|titulo|A6|
 ST|filtro|A8|
 ST|ano|E2:J2|
@@ -230,8 +231,8 @@
 TO|SUBTOTAL(9,#)|U10|U12
 TO|SUBTOTAL(9,#)|V10|V12
 TO|SUBTOTAL(9,#)|W10|W12
-CF|#DBE5F1|A11:AB11|
-TA|A:AB|11|28</t>
+CF|#DBE5F1|A11:AA11|
+TA|A:AA|11|27</t>
   </si>
 </sst>
 </file>
